--- a/MONITOR20-2/GB/Talleres/Minero/revisiónMinero.xlsx
+++ b/MONITOR20-2/GB/Talleres/Minero/revisiónMinero.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EC7DF9-1388-45C5-B9DE-824BE4F92F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D095ADBD-8D78-403D-A8FA-6BD62EC4361C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -698,8 +698,8 @@
   </sheetPr>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -749,6 +749,9 @@
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3">
